--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_6.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_6.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3495.045079806334</v>
+        <v>-3495.045079806312</v>
       </c>
     </row>
     <row r="7">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="C4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="D4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="E4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="F4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="G4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="H4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="I4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="J4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="K4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="L4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="M4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="N4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="O4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
       <c r="P4" t="n">
-        <v>21154.01245448003</v>
+        <v>21154.01245448002</v>
       </c>
     </row>
     <row r="5">
@@ -26528,40 +26530,40 @@
         <v>-23050.59377275998</v>
       </c>
       <c r="E6" t="n">
-        <v>10577.00622724001</v>
+        <v>10577.00622724002</v>
       </c>
       <c r="F6" t="n">
-        <v>10577.00622724001</v>
+        <v>10577.00622724002</v>
       </c>
       <c r="G6" t="n">
-        <v>10577.00622724001</v>
+        <v>10577.00622724002</v>
       </c>
       <c r="H6" t="n">
-        <v>10577.00622724001</v>
+        <v>10577.00622724002</v>
       </c>
       <c r="I6" t="n">
-        <v>10577.00622724001</v>
+        <v>10577.00622724002</v>
       </c>
       <c r="J6" t="n">
-        <v>10577.00622724001</v>
+        <v>10577.00622724002</v>
       </c>
       <c r="K6" t="n">
-        <v>10577.00622724001</v>
+        <v>10577.00622724002</v>
       </c>
       <c r="L6" t="n">
-        <v>10577.00622724001</v>
+        <v>10577.00622724002</v>
       </c>
       <c r="M6" t="n">
-        <v>10577.00622724001</v>
+        <v>10577.00622724002</v>
       </c>
       <c r="N6" t="n">
-        <v>10577.00622724001</v>
+        <v>10577.00622724002</v>
       </c>
       <c r="O6" t="n">
-        <v>10577.00622724001</v>
+        <v>10577.00622724002</v>
       </c>
       <c r="P6" t="n">
-        <v>10577.00622724001</v>
+        <v>10577.00622724002</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_6.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3495.045079806312</v>
+        <v>-144092.7148680785</v>
       </c>
     </row>
     <row r="7">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="C4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="D4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="E4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="F4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="G4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="H4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="I4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="J4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="K4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="L4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="M4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="N4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="O4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="P4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23050.59377275998</v>
+        <v>-39855.05438060337</v>
       </c>
       <c r="C6" t="n">
-        <v>-23050.59377275998</v>
+        <v>-39855.05438060337</v>
       </c>
       <c r="D6" t="n">
-        <v>-23050.59377275998</v>
+        <v>-39855.05438060337</v>
       </c>
       <c r="E6" t="n">
-        <v>10577.00622724002</v>
+        <v>-6227.454380603376</v>
       </c>
       <c r="F6" t="n">
-        <v>10577.00622724002</v>
+        <v>-6227.454380603376</v>
       </c>
       <c r="G6" t="n">
-        <v>10577.00622724002</v>
+        <v>-6227.454380603376</v>
       </c>
       <c r="H6" t="n">
-        <v>10577.00622724002</v>
+        <v>-6227.454380603376</v>
       </c>
       <c r="I6" t="n">
-        <v>10577.00622724002</v>
+        <v>-6227.454380603376</v>
       </c>
       <c r="J6" t="n">
-        <v>10577.00622724002</v>
+        <v>-6227.454380603376</v>
       </c>
       <c r="K6" t="n">
-        <v>10577.00622724002</v>
+        <v>-6227.454380603376</v>
       </c>
       <c r="L6" t="n">
-        <v>10577.00622724002</v>
+        <v>-6227.454380603376</v>
       </c>
       <c r="M6" t="n">
-        <v>10577.00622724002</v>
+        <v>-6227.454380603376</v>
       </c>
       <c r="N6" t="n">
-        <v>10577.00622724002</v>
+        <v>-6227.454380603376</v>
       </c>
       <c r="O6" t="n">
-        <v>10577.00622724002</v>
+        <v>-6227.454380603376</v>
       </c>
       <c r="P6" t="n">
-        <v>10577.00622724002</v>
+        <v>-6227.454380603376</v>
       </c>
     </row>
   </sheetData>
